--- a/MLops prep tracker.xlsx
+++ b/MLops prep tracker.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10414"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ramakrishnareddymaramreddy/Desktop/prep/devops-project/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ramakrishnareddymaramreddy/Desktop/rkred/devops_prep/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A3E0DC61-B337-E140-AE28-8800A0E176FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F1655E9-B9BC-DE4F-911C-5BACD14EF316}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16560" xr2:uid="{B0B291A9-9650-CA42-8F3C-415E21D5DCD6}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16380" xr2:uid="{B0B291A9-9650-CA42-8F3C-415E21D5DCD6}"/>
   </bookViews>
   <sheets>
     <sheet name="tracker" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="11">
   <si>
     <t>devops</t>
   </si>
@@ -68,6 +68,9 @@
   </si>
   <si>
     <t>created and repo and cloned and push and pull completed, near branching</t>
+  </si>
+  <si>
+    <t>nothing</t>
   </si>
 </sst>
 </file>
@@ -103,8 +106,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -439,44 +443,64 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90789157-40D2-6049-AF0A-32952BFC57AA}">
-  <dimension ref="A2:B5"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B1" s="1">
+        <v>45531</v>
+      </c>
+      <c r="C1" s="1">
+        <v>45532</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>2</v>
       </c>
       <c r="B3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>4</v>
       </c>
       <c r="B4" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>5</v>
       </c>
       <c r="B5" t="s">
         <v>6</v>
+      </c>
+      <c r="C5" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/MLops prep tracker.xlsx
+++ b/MLops prep tracker.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ramakrishnareddymaramreddy/Desktop/rkred/devops_prep/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F1655E9-B9BC-DE4F-911C-5BACD14EF316}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{355C17FC-6B57-AB40-BE34-D62001F27B0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16380" xr2:uid="{B0B291A9-9650-CA42-8F3C-415E21D5DCD6}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16380" activeTab="3" xr2:uid="{B0B291A9-9650-CA42-8F3C-415E21D5DCD6}"/>
   </bookViews>
   <sheets>
     <sheet name="tracker" sheetId="1" r:id="rId1"/>
     <sheet name="devops" sheetId="2" r:id="rId2"/>
     <sheet name="python ML" sheetId="3" r:id="rId3"/>
+    <sheet name="Git" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="36">
   <si>
     <t>devops</t>
   </si>
@@ -71,6 +72,81 @@
   </si>
   <si>
     <t>nothing</t>
+  </si>
+  <si>
+    <t>git branch</t>
+  </si>
+  <si>
+    <t>not started</t>
+  </si>
+  <si>
+    <t>not stated</t>
+  </si>
+  <si>
+    <t>Git Commands</t>
+  </si>
+  <si>
+    <t>Discription</t>
+  </si>
+  <si>
+    <t>understanding</t>
+  </si>
+  <si>
+    <t>git init</t>
+  </si>
+  <si>
+    <t>initialzing  local repo</t>
+  </si>
+  <si>
+    <t>git add .</t>
+  </si>
+  <si>
+    <t>adding created file to staing</t>
+  </si>
+  <si>
+    <t>git commit</t>
+  </si>
+  <si>
+    <t>commit the change the /created file</t>
+  </si>
+  <si>
+    <t>"-m commit meaasge"</t>
+  </si>
+  <si>
+    <t>git clone "repository url"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cloning the central repository to the local environmet </t>
+  </si>
+  <si>
+    <t>git psuh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pushing the local changes to the cental repository </t>
+  </si>
+  <si>
+    <t>che checking the branch</t>
+  </si>
+  <si>
+    <t>git branch &lt;branchname&gt; creating  the branch name to</t>
+  </si>
+  <si>
+    <t>git checkout &lt;branch name&gt;</t>
+  </si>
+  <si>
+    <t>switching one branch to the other branch</t>
+  </si>
+  <si>
+    <t>git pull</t>
+  </si>
+  <si>
+    <t>keeping your local repo upto date with the central repo</t>
+  </si>
+  <si>
+    <t>git merge &lt;branch name&gt;</t>
+  </si>
+  <si>
+    <t>merging  the next branch to this branch</t>
   </si>
 </sst>
 </file>
@@ -443,23 +519,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90789157-40D2-6049-AF0A-32952BFC57AA}">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B1" s="1">
         <v>45531</v>
       </c>
       <c r="C1" s="1">
         <v>45532</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D1" s="1">
+        <v>45537</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -469,8 +548,11 @@
       <c r="C2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -480,8 +562,11 @@
       <c r="C3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -491,8 +576,11 @@
       <c r="C4" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -501,6 +589,9 @@
       </c>
       <c r="C5" t="s">
         <v>10</v>
+      </c>
+      <c r="D5" t="s">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -552,4 +643,112 @@
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D8DBD03-73AA-C344-AC94-0C6DADE205F6}">
+  <dimension ref="A2:C11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="29.1640625" customWidth="1"/>
+    <col min="2" max="2" width="39.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>32</v>
+      </c>
+      <c r="B10" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>34</v>
+      </c>
+      <c r="B11" t="s">
+        <v>35</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/MLops prep tracker.xlsx
+++ b/MLops prep tracker.xlsx
@@ -5,17 +5,18 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ramakrishnareddymaramreddy/Desktop/rkred/devops_prep/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ramakrishnareddymaramreddy/Desktop/rkreddy/devops_prep/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F1655E9-B9BC-DE4F-911C-5BACD14EF316}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAC5DA36-7C98-DB40-A1C9-2B5DEBA8941C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16380" xr2:uid="{B0B291A9-9650-CA42-8F3C-415E21D5DCD6}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16380" activeTab="3" xr2:uid="{B0B291A9-9650-CA42-8F3C-415E21D5DCD6}"/>
   </bookViews>
   <sheets>
     <sheet name="tracker" sheetId="1" r:id="rId1"/>
     <sheet name="devops" sheetId="2" r:id="rId2"/>
     <sheet name="python ML" sheetId="3" r:id="rId3"/>
+    <sheet name="Git" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="37">
   <si>
     <t>devops</t>
   </si>
@@ -71,6 +72,84 @@
   </si>
   <si>
     <t>nothing</t>
+  </si>
+  <si>
+    <t>git branch</t>
+  </si>
+  <si>
+    <t>not started</t>
+  </si>
+  <si>
+    <t>not stated</t>
+  </si>
+  <si>
+    <t>Git Commands</t>
+  </si>
+  <si>
+    <t>Discription</t>
+  </si>
+  <si>
+    <t>understanding</t>
+  </si>
+  <si>
+    <t>git init</t>
+  </si>
+  <si>
+    <t>initialzing  local repo</t>
+  </si>
+  <si>
+    <t>git add .</t>
+  </si>
+  <si>
+    <t>adding created file to staing</t>
+  </si>
+  <si>
+    <t>git commit</t>
+  </si>
+  <si>
+    <t>commit the change the /created file</t>
+  </si>
+  <si>
+    <t>"-m commit meaasge"</t>
+  </si>
+  <si>
+    <t>git clone "repository url"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cloning the central repository to the local environmet </t>
+  </si>
+  <si>
+    <t>git psuh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pushing the local changes to the cental repository </t>
+  </si>
+  <si>
+    <t>che checking the branch</t>
+  </si>
+  <si>
+    <t>git branch &lt;branchname&gt; creating  the branch name to</t>
+  </si>
+  <si>
+    <t>git checkout &lt;branch name&gt;</t>
+  </si>
+  <si>
+    <t>switching one branch to the other branch</t>
+  </si>
+  <si>
+    <t>git pull</t>
+  </si>
+  <si>
+    <t>keeping your local repo upto date with the central repo</t>
+  </si>
+  <si>
+    <t>git merge &lt;branch name&gt;</t>
+  </si>
+  <si>
+    <t>merging  the next branch to this branch</t>
+  </si>
+  <si>
+    <t>git</t>
   </si>
 </sst>
 </file>
@@ -443,23 +522,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90789157-40D2-6049-AF0A-32952BFC57AA}">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B1" s="1">
         <v>45531</v>
       </c>
       <c r="C1" s="1">
         <v>45532</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D1" s="1">
+        <v>45537</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -469,8 +551,11 @@
       <c r="C2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -480,8 +565,11 @@
       <c r="C3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -491,8 +579,11 @@
       <c r="C4" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -501,6 +592,9 @@
       </c>
       <c r="C5" t="s">
         <v>10</v>
+      </c>
+      <c r="D5" t="s">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -552,4 +646,117 @@
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D8DBD03-73AA-C344-AC94-0C6DADE205F6}">
+  <dimension ref="A2:C12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="29.1640625" customWidth="1"/>
+    <col min="2" max="2" width="39.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>32</v>
+      </c>
+      <c r="B10" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>34</v>
+      </c>
+      <c r="B11" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>36</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/MLops prep tracker.xlsx
+++ b/MLops prep tracker.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ramakrishnareddymaramreddy/Desktop/rkred/devops_prep/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ramakrishnareddymaramreddy/Desktop/rkreddy/devops_prep/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F1655E9-B9BC-DE4F-911C-5BACD14EF316}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD3A9869-8CC8-6E4E-9615-3EDDAD2FF326}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16380" xr2:uid="{B0B291A9-9650-CA42-8F3C-415E21D5DCD6}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16380" activeTab="2" xr2:uid="{B0B291A9-9650-CA42-8F3C-415E21D5DCD6}"/>
   </bookViews>
   <sheets>
     <sheet name="tracker" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="14">
   <si>
     <t>devops</t>
   </si>
@@ -71,6 +71,15 @@
   </si>
   <si>
     <t>nothing</t>
+  </si>
+  <si>
+    <t>python scriptinh</t>
+  </si>
+  <si>
+    <t>python variables</t>
+  </si>
+  <si>
+    <t>python functions</t>
   </si>
 </sst>
 </file>
@@ -445,7 +454,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90789157-40D2-6049-AF0A-32952BFC57AA}">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
@@ -544,12 +553,30 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE07B11C-A16E-8446-9C44-14FF839193BD}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>